--- a/TV Guide 2024.xlsx
+++ b/TV Guide 2024.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://progressiveinsurance.sharepoint.com/sites/Grp_KDSProjects/Shared Documents/Analytics Boot Camp Training Development/ABC 2024 Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a099954/Documents/git repo/ABC-program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3255" documentId="13_ncr:1_{758DC207-15BD-FB43-B4D4-71FE09E339D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63BB76B7-A38F-4C54-94C6-88F0D688DACD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9534F7D8-C474-944B-9BD4-9BF267764971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{700C1146-FA72-A14B-BD60-A6A4F3BABEC5}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" firstSheet="1" activeTab="1" xr2:uid="{700C1146-FA72-A14B-BD60-A6A4F3BABEC5}"/>
   </bookViews>
   <sheets>
     <sheet name="CHS Notes" sheetId="13" r:id="rId1"/>
     <sheet name="Weekly Calendar" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId3"/>
-    <sheet name="Non-tech training" sheetId="3" r:id="rId4"/>
-    <sheet name="Data Literacy Week 1" sheetId="4" r:id="rId5"/>
-    <sheet name="SQL Week 2" sheetId="5" r:id="rId6"/>
-    <sheet name="Excel Week 3" sheetId="8" r:id="rId7"/>
-    <sheet name="Stats &amp; Data Analysis Week 4" sheetId="7" r:id="rId8"/>
-    <sheet name="SQL Week 5" sheetId="6" r:id="rId9"/>
-    <sheet name="Data Viz Week 6" sheetId="12" r:id="rId10"/>
+    <sheet name="Non-tech training" sheetId="3" r:id="rId3"/>
+    <sheet name="Data Literacy Week 1" sheetId="4" r:id="rId4"/>
+    <sheet name="SQL Week 2" sheetId="5" r:id="rId5"/>
+    <sheet name="Excel Week 3" sheetId="8" r:id="rId6"/>
+    <sheet name="Stats &amp; Data Analysis Week 4" sheetId="7" r:id="rId7"/>
+    <sheet name="SQL Week 5" sheetId="6" r:id="rId8"/>
+    <sheet name="Data Viz Week 6" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Non-tech training'!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Non-tech training'!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -945,6 +944,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1747,14 +1747,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1765,67 +1831,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1837,34 +1870,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1879,107 +1885,152 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1998,57 +2049,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2069,9 +2069,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2109,7 +2109,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2215,7 +2215,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2357,7 +2357,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2371,141 +2371,140 @@
       <selection activeCell="E24" sqref="E23:E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.875" style="2"/>
-    <col min="9" max="9" width="13.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="2"/>
-    <col min="11" max="11" width="15.875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="10.875" style="2"/>
-    <col min="14" max="14" width="14.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="2"/>
-    <col min="16" max="16" width="17.375" style="2" customWidth="1"/>
-    <col min="17" max="18" width="10.875" style="2"/>
-    <col min="19" max="19" width="13.375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="2"/>
-    <col min="21" max="21" width="15.625" style="2" customWidth="1"/>
-    <col min="22" max="23" width="10.875" style="2"/>
-    <col min="24" max="24" width="12.25" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.875" style="2"/>
-    <col min="26" max="26" width="12.625" style="2" customWidth="1"/>
-    <col min="27" max="28" width="10.875" style="2"/>
-    <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
-    <col min="30" max="30" width="10.875" style="2"/>
-    <col min="31" max="31" width="17.125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="2"/>
-    <col min="33" max="33" width="12.375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="13.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="15.83203125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="2"/>
+    <col min="14" max="14" width="14.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="2"/>
+    <col min="16" max="16" width="17.33203125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="10.83203125" style="2"/>
+    <col min="19" max="19" width="13.33203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="2"/>
+    <col min="21" max="21" width="15.6640625" style="2" customWidth="1"/>
+    <col min="22" max="23" width="10.83203125" style="2"/>
+    <col min="24" max="24" width="12.1640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="2"/>
+    <col min="26" max="26" width="12.6640625" style="2" customWidth="1"/>
+    <col min="27" max="28" width="10.83203125" style="2"/>
+    <col min="29" max="29" width="12.6640625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="2"/>
+    <col min="31" max="31" width="17.1640625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="10.83203125" style="2"/>
+    <col min="33" max="33" width="12.33203125" style="2" customWidth="1"/>
     <col min="34" max="34" width="13.5" style="2" customWidth="1"/>
-    <col min="35" max="35" width="10.875" style="2"/>
+    <col min="35" max="35" width="10.83203125" style="2"/>
     <col min="36" max="36" width="15" style="2" customWidth="1"/>
-    <col min="37" max="38" width="10.875" style="2"/>
-    <col min="39" max="39" width="12.625" style="2" customWidth="1"/>
-    <col min="40" max="40" width="10.875" style="2"/>
+    <col min="37" max="38" width="10.83203125" style="2"/>
+    <col min="39" max="39" width="12.6640625" style="2" customWidth="1"/>
+    <col min="40" max="40" width="10.83203125" style="2"/>
     <col min="41" max="41" width="20.5" style="2" customWidth="1"/>
-    <col min="42" max="42" width="23.125" style="2" customWidth="1"/>
-    <col min="43" max="43" width="10.875" style="2"/>
-    <col min="44" max="44" width="12.125" style="2" customWidth="1"/>
-    <col min="45" max="48" width="10.875" style="2"/>
-    <col min="49" max="49" width="12.625" style="2" customWidth="1"/>
-    <col min="50" max="50" width="10.875" style="2"/>
-    <col min="51" max="51" width="27.25" style="2" customWidth="1"/>
+    <col min="42" max="42" width="23.1640625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="10.83203125" style="2"/>
+    <col min="44" max="44" width="12.1640625" style="2" customWidth="1"/>
+    <col min="45" max="48" width="10.83203125" style="2"/>
+    <col min="49" max="49" width="12.6640625" style="2" customWidth="1"/>
+    <col min="50" max="50" width="10.83203125" style="2"/>
+    <col min="51" max="51" width="27.1640625" style="2" customWidth="1"/>
     <col min="52" max="52" width="13.5" style="2" customWidth="1"/>
     <col min="53" max="53" width="16.5" style="2" customWidth="1"/>
-    <col min="54" max="54" width="18.25" style="2" customWidth="1"/>
-    <col min="55" max="55" width="18.125" style="2" customWidth="1"/>
-    <col min="56" max="56" width="19.75" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="10.875" style="2"/>
+    <col min="54" max="55" width="18.1640625" style="2" customWidth="1"/>
+    <col min="56" max="56" width="19.6640625" style="2" customWidth="1"/>
+    <col min="57" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="92" t="s">
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="92" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="92" t="s">
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="93" t="s">
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="90" t="s">
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="92" t="s">
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="90"/>
-      <c r="AJ1" s="91"/>
-      <c r="AK1" s="92" t="s">
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="112"/>
+      <c r="AK1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="91"/>
-      <c r="AP1" s="92" t="s">
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="90"/>
-      <c r="AR1" s="90"/>
-      <c r="AS1" s="90"/>
-      <c r="AT1" s="91"/>
-      <c r="AU1" s="92" t="s">
+      <c r="AQ1" s="111"/>
+      <c r="AR1" s="111"/>
+      <c r="AS1" s="111"/>
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="AV1" s="90"/>
-      <c r="AW1" s="90"/>
-      <c r="AX1" s="90"/>
-      <c r="AY1" s="91"/>
-      <c r="AZ1" s="92" t="s">
+      <c r="AV1" s="111"/>
+      <c r="AW1" s="111"/>
+      <c r="AX1" s="111"/>
+      <c r="AY1" s="112"/>
+      <c r="AZ1" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="BA1" s="90"/>
-      <c r="BB1" s="90"/>
-      <c r="BC1" s="90"/>
-      <c r="BD1" s="91"/>
-    </row>
-    <row r="2" spans="1:56" ht="32.1" customHeight="1">
+      <c r="BA1" s="111"/>
+      <c r="BB1" s="111"/>
+      <c r="BC1" s="111"/>
+      <c r="BD1" s="112"/>
+    </row>
+    <row r="2" spans="1:56" ht="32" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -2679,148 +2678,148 @@
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="100" t="s">
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="102" t="s">
+      <c r="G3" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="100" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="102" t="s">
+      <c r="L3" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="100" t="s">
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="102" t="s">
+      <c r="Q3" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="98" t="s">
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="98" t="s">
+      <c r="V3" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="110" t="s">
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="104" t="s">
+      <c r="AA3" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="105" t="s">
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="104" t="s">
+      <c r="AF3" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="107" t="s">
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="AK3" s="102" t="s">
+      <c r="AK3" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="AL3" s="98"/>
-      <c r="AM3" s="98"/>
-      <c r="AN3" s="98"/>
-      <c r="AO3" s="100" t="s">
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="95" t="s">
         <v>28</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AQ3" s="98" t="s">
+      <c r="AQ3" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="AR3" s="98"/>
-      <c r="AS3" s="98"/>
-      <c r="AT3" s="100"/>
-      <c r="AU3" s="102" t="s">
+      <c r="AR3" s="100"/>
+      <c r="AS3" s="100"/>
+      <c r="AT3" s="95"/>
+      <c r="AU3" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="98"/>
-      <c r="AX3" s="98"/>
-      <c r="AY3" s="100" t="s">
+      <c r="AV3" s="100"/>
+      <c r="AW3" s="100"/>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="AZ3" s="102" t="s">
+      <c r="AZ3" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="BA3" s="98"/>
-      <c r="BB3" s="98" t="s">
+      <c r="BA3" s="100"/>
+      <c r="BB3" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="BC3" s="98" t="s">
+      <c r="BC3" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="BD3" s="100" t="s">
+      <c r="BD3" s="95" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="63.95" customHeight="1" thickBot="1">
+    <row r="4" spans="1:56" ht="64" customHeight="1" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="101"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="112" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="106"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="104"/>
       <c r="AF4" s="48"/>
       <c r="AG4" s="52" t="s">
         <v>39</v>
@@ -2831,7 +2830,7 @@
       <c r="AI4" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="AJ4" s="108"/>
+      <c r="AJ4" s="106"/>
       <c r="AK4" s="46"/>
       <c r="AL4" s="47" t="s">
         <v>42</v>
@@ -2842,28 +2841,28 @@
       <c r="AN4" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="AO4" s="109"/>
-      <c r="AP4" s="103" t="s">
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="99"/>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="101"/>
-      <c r="AU4" s="103" t="s">
+      <c r="AQ4" s="98"/>
+      <c r="AR4" s="98"/>
+      <c r="AS4" s="98"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="99"/>
-      <c r="AY4" s="101"/>
-      <c r="AZ4" s="103"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="101"/>
-    </row>
-    <row r="5" spans="1:56" ht="108.6">
+      <c r="AV4" s="98"/>
+      <c r="AW4" s="98"/>
+      <c r="AX4" s="98"/>
+      <c r="AY4" s="96"/>
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="96"/>
+    </row>
+    <row r="5" spans="1:56" ht="119">
       <c r="C5" s="37" t="s">
         <v>46</v>
       </c>
@@ -2896,34 +2895,34 @@
       <c r="AD5" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="AF5" s="98" t="s">
+      <c r="AF5" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="100"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="100"/>
       <c r="AM5" s="37" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="15.6" customHeight="1">
+    <row r="6" spans="1:56" ht="15.5" customHeight="1">
       <c r="S6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V6" s="98" t="s">
+      <c r="V6" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AK6" s="98" t="s">
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="100"/>
+      <c r="AK6" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="100"/>
+      <c r="AN6" s="100"/>
     </row>
     <row r="7" spans="1:56">
       <c r="B7" s="2" t="s">
@@ -2939,10 +2938,10 @@
       </c>
     </row>
     <row r="14" spans="1:56">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="114"/>
+      <c r="B14" s="91"/>
     </row>
     <row r="15" spans="1:56">
       <c r="A15" s="60" t="s">
@@ -2953,7 +2952,7 @@
       </c>
     </row>
     <row r="16" spans="1:56">
-      <c r="A16" s="113" t="s">
+      <c r="A16" s="92" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="58" t="s">
@@ -2961,24 +2960,24 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="113"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="58" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30.95">
-      <c r="A18" s="113"/>
+    <row r="18" spans="1:9" ht="34">
+      <c r="A18" s="92"/>
       <c r="B18" s="61" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="114"/>
-    </row>
-    <row r="20" spans="1:9" ht="46.5">
+      <c r="B19" s="91"/>
+    </row>
+    <row r="20" spans="1:9" ht="51">
       <c r="A20" s="58" t="s">
         <v>22</v>
       </c>
@@ -2987,10 +2986,10 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="115"/>
+      <c r="B21" s="94"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="58" t="s">
@@ -3001,10 +3000,10 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="114" t="s">
+      <c r="A23" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="114"/>
+      <c r="B23" s="91"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="58" t="s">
@@ -3018,12 +3017,12 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="114" t="s">
+      <c r="A25" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="114"/>
-    </row>
-    <row r="26" spans="1:9" ht="30.95">
+      <c r="B25" s="91"/>
+    </row>
+    <row r="26" spans="1:9" ht="34">
       <c r="A26" s="58" t="s">
         <v>77</v>
       </c>
@@ -3032,13 +3031,13 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="114" t="s">
+      <c r="A27" s="91" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="114"/>
-    </row>
-    <row r="28" spans="1:9" ht="30.95">
-      <c r="A28" s="113" t="s">
+      <c r="B27" s="91"/>
+    </row>
+    <row r="28" spans="1:9" ht="34">
+      <c r="A28" s="92" t="s">
         <v>80</v>
       </c>
       <c r="B28" s="61" t="s">
@@ -3046,7 +3045,7 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="113"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="58" t="s">
         <v>82</v>
       </c>
@@ -3055,10 +3054,10 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="114" t="s">
+      <c r="A30" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="114"/>
+      <c r="B30" s="91"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="58" t="s">
@@ -3069,12 +3068,12 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="114" t="s">
+      <c r="A32" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="B32" s="114"/>
-    </row>
-    <row r="33" spans="1:2" ht="30.95">
+      <c r="B32" s="91"/>
+    </row>
+    <row r="33" spans="1:2" ht="34">
       <c r="A33" s="58" t="s">
         <v>84</v>
       </c>
@@ -3083,67 +3082,64 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="114" t="s">
+      <c r="A34" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="114"/>
+      <c r="B34" s="91"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="113" t="s">
+      <c r="A35" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="B35" s="113"/>
+      <c r="B35" s="92"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="114" t="s">
+      <c r="A36" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="114"/>
+      <c r="B36" s="91"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="113" t="s">
+      <c r="A37" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="113"/>
+      <c r="B37" s="92"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="114" t="s">
+      <c r="A38" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="114"/>
-    </row>
-    <row r="39" spans="1:2" ht="30.95" customHeight="1">
-      <c r="A39" s="116" t="s">
+      <c r="B38" s="91"/>
+    </row>
+    <row r="39" spans="1:2" ht="31" customHeight="1">
+      <c r="A39" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="116"/>
+      <c r="B39" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="BD3:BD4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AP4:AT4"/>
-    <mergeCell ref="AU4:AX4"/>
-    <mergeCell ref="AF5:AJ5"/>
-    <mergeCell ref="AZ3:BA4"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="L3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:Y4"/>
     <mergeCell ref="V6:Z6"/>
     <mergeCell ref="AK6:AN6"/>
     <mergeCell ref="AQ3:AT3"/>
@@ -3156,342 +3152,33 @@
     <mergeCell ref="AK3:AN3"/>
     <mergeCell ref="AO3:AO4"/>
     <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="L3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:Y4"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AP4:AT4"/>
+    <mergeCell ref="AU4:AX4"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="AZ3:BA4"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA36C93-8417-4300-B37D-618FD9E7F1BB}">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="25.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4" s="130" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="130" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="130" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="130" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="130" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="34">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="34">
-        <v>0.4375</v>
-      </c>
-      <c r="B7" s="168" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="168" t="s">
-        <v>259</v>
-      </c>
-      <c r="D7" s="171" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="171" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" s="171" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>11</v>
-      </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="172"/>
-      <c r="F8" s="172"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="34">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>12</v>
-      </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="173"/>
-      <c r="E10" s="173"/>
-      <c r="F10" s="173"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="34">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="B11" s="140" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="140" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="140" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="140" t="s">
-        <v>197</v>
-      </c>
-      <c r="F11" s="140" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="34">
-        <v>6.25E-2</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" s="177" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="135" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="184" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="180" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="130" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A15" s="34">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="B15" s="178"/>
-      <c r="C15" s="183"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="130"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" s="178"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="130"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A17" s="34">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="B17" s="178"/>
-      <c r="C17" s="187" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" s="174" t="s">
-        <v>205</v>
-      </c>
-      <c r="F17" s="130"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" customHeight="1">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" s="178"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="130"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="34">
-        <v>0.1875</v>
-      </c>
-      <c r="B19" s="179"/>
-      <c r="C19" s="189"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="176"/>
-      <c r="F19" s="130"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="F20" s="130"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="34">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="F14:F21"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" display="https://performancemanager8.successfactors.com/sf/learning?destUrl=https://progressive.plateau.com/learning/user/deeplink_redirect.jsp?linkId%3dITEM_DETAILS%26componentID%3dMUOP00001%26componentTypeID%3dWBT%26revisionDate%3d1509508800000%26fromSF%3dY&amp;company=ProgressivePR" xr:uid="{17299FA9-D109-437C-85FD-22B1B31E1C9D}"/>
-    <hyperlink ref="D14" r:id="rId2" display="https://performancemanager8.successfactors.com/sf/learning?destUrl=https%3a%2f%2fprogressive.plateau.com%2flearning%2fuser%2fdeeplink_redirect.jsp%3flinkId%3dITEM_DETAILS%26componentID%3dMUOP00197%26componentTypeID%3dWBT%26revisionDate%3d1627064100000%26fromSF%3dY&amp;company=ProgressivePR" xr:uid="{D1C93510-7D97-4907-A651-A9956D028D6F}"/>
-    <hyperlink ref="D17:D19" r:id="rId3" display="Udemy: Tableau" xr:uid="{1DFEE524-6FCD-44B2-84C3-029B8675CDDB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3499,144 +3186,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7537A84D-7FE1-BA46-97D8-C83FD18922B3}">
   <dimension ref="A1:BD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AO4" sqref="AO4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="16" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.875" style="2"/>
-    <col min="9" max="9" width="13.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="2"/>
-    <col min="11" max="11" width="15.875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="10.875" style="2"/>
-    <col min="14" max="14" width="14.125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="2"/>
-    <col min="16" max="16" width="17.375" style="2" customWidth="1"/>
-    <col min="17" max="18" width="10.875" style="2"/>
-    <col min="19" max="19" width="13.375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="2"/>
-    <col min="21" max="21" width="15.625" style="2" customWidth="1"/>
-    <col min="22" max="23" width="10.875" style="2"/>
-    <col min="24" max="24" width="12.25" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10.875" style="2"/>
-    <col min="26" max="26" width="12.625" style="2" customWidth="1"/>
-    <col min="27" max="28" width="10.875" style="2"/>
-    <col min="29" max="29" width="12.75" style="2" customWidth="1"/>
-    <col min="30" max="30" width="10.875" style="2"/>
-    <col min="31" max="31" width="17.125" style="2" customWidth="1"/>
-    <col min="32" max="32" width="10.875" style="2"/>
-    <col min="33" max="33" width="12.375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="13.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="2"/>
+    <col min="11" max="11" width="15.83203125" style="2" customWidth="1"/>
+    <col min="12" max="13" width="10.83203125" style="2"/>
+    <col min="14" max="14" width="14.1640625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" style="2"/>
+    <col min="16" max="16" width="17.33203125" style="2" customWidth="1"/>
+    <col min="17" max="18" width="10.83203125" style="2"/>
+    <col min="19" max="19" width="13.33203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="2"/>
+    <col min="21" max="21" width="15.6640625" style="2" customWidth="1"/>
+    <col min="22" max="23" width="10.83203125" style="2"/>
+    <col min="24" max="24" width="12.1640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="2"/>
+    <col min="26" max="26" width="12.6640625" style="2" customWidth="1"/>
+    <col min="27" max="28" width="10.83203125" style="2"/>
+    <col min="29" max="29" width="12.6640625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="10.83203125" style="2"/>
+    <col min="31" max="31" width="17.1640625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="10.83203125" style="2"/>
+    <col min="33" max="33" width="12.33203125" style="2" customWidth="1"/>
     <col min="34" max="34" width="13.5" style="2" customWidth="1"/>
-    <col min="35" max="35" width="10.875" style="2"/>
+    <col min="35" max="35" width="10.83203125" style="2"/>
     <col min="36" max="36" width="15" style="2" customWidth="1"/>
-    <col min="37" max="38" width="10.875" style="2"/>
-    <col min="39" max="39" width="12.625" style="2" customWidth="1"/>
-    <col min="40" max="40" width="10.875" style="2"/>
+    <col min="37" max="38" width="10.83203125" style="2"/>
+    <col min="39" max="39" width="12.6640625" style="2" customWidth="1"/>
+    <col min="40" max="40" width="10.83203125" style="2"/>
     <col min="41" max="41" width="17" style="2" customWidth="1"/>
-    <col min="42" max="42" width="15.625" style="2" customWidth="1"/>
-    <col min="43" max="43" width="10.875" style="2"/>
-    <col min="44" max="44" width="12.125" style="2" customWidth="1"/>
-    <col min="45" max="48" width="10.875" style="2"/>
-    <col min="49" max="49" width="12.625" style="2" customWidth="1"/>
-    <col min="50" max="50" width="10.875" style="2"/>
-    <col min="51" max="51" width="27.25" style="2" customWidth="1"/>
-    <col min="52" max="52" width="19.25" style="2" customWidth="1"/>
+    <col min="42" max="42" width="15.6640625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="10.83203125" style="2"/>
+    <col min="44" max="44" width="12.1640625" style="2" customWidth="1"/>
+    <col min="45" max="48" width="10.83203125" style="2"/>
+    <col min="49" max="49" width="12.6640625" style="2" customWidth="1"/>
+    <col min="50" max="50" width="10.83203125" style="2"/>
+    <col min="51" max="51" width="27.1640625" style="2" customWidth="1"/>
+    <col min="52" max="52" width="19.1640625" style="2" customWidth="1"/>
     <col min="53" max="54" width="27.5" style="2" customWidth="1"/>
-    <col min="55" max="55" width="18.125" style="2" customWidth="1"/>
-    <col min="56" max="56" width="19.75" style="2" customWidth="1"/>
-    <col min="57" max="16384" width="10.875" style="2"/>
+    <col min="55" max="55" width="18.1640625" style="2" customWidth="1"/>
+    <col min="56" max="56" width="19.6640625" style="2" customWidth="1"/>
+    <col min="57" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:56" ht="24" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="93" t="s">
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="93" t="s">
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="93" t="s">
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="94"/>
-      <c r="S1" s="94"/>
-      <c r="T1" s="94"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="94" t="s">
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="94"/>
-      <c r="X1" s="94"/>
-      <c r="Y1" s="94"/>
-      <c r="Z1" s="94"/>
-      <c r="AA1" s="92" t="s">
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="91"/>
-      <c r="AF1" s="94" t="s">
+      <c r="AB1" s="111"/>
+      <c r="AC1" s="111"/>
+      <c r="AD1" s="111"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="AG1" s="94"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="94"/>
-      <c r="AJ1" s="95"/>
-      <c r="AK1" s="92" t="s">
+      <c r="AG1" s="116"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="116"/>
+      <c r="AJ1" s="117"/>
+      <c r="AK1" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="AL1" s="90"/>
-      <c r="AM1" s="90"/>
-      <c r="AN1" s="90"/>
-      <c r="AO1" s="90"/>
-      <c r="AP1" s="93" t="s">
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="111"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="94"/>
-      <c r="AR1" s="94"/>
-      <c r="AS1" s="94"/>
-      <c r="AT1" s="94"/>
-      <c r="AU1" s="93" t="s">
+      <c r="AQ1" s="116"/>
+      <c r="AR1" s="116"/>
+      <c r="AS1" s="116"/>
+      <c r="AT1" s="116"/>
+      <c r="AU1" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="AV1" s="94"/>
-      <c r="AW1" s="94"/>
-      <c r="AX1" s="94"/>
-      <c r="AY1" s="95"/>
-      <c r="AZ1" s="90" t="s">
+      <c r="AV1" s="116"/>
+      <c r="AW1" s="116"/>
+      <c r="AX1" s="116"/>
+      <c r="AY1" s="117"/>
+      <c r="AZ1" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="BA1" s="90"/>
-      <c r="BB1" s="90"/>
-      <c r="BC1" s="90"/>
-      <c r="BD1" s="91"/>
-    </row>
-    <row r="2" spans="1:56" ht="32.1" customHeight="1">
+      <c r="BA1" s="111"/>
+      <c r="BB1" s="111"/>
+      <c r="BC1" s="111"/>
+      <c r="BD1" s="112"/>
+    </row>
+    <row r="2" spans="1:56" ht="32" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -3813,66 +3500,66 @@
       <c r="B3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="110" t="s">
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="128" t="s">
+      <c r="L3" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="98" t="s">
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="117" t="s">
+      <c r="Q3" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="98" t="s">
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
+      <c r="T3" s="129"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="W3" s="98"/>
-      <c r="X3" s="98"/>
-      <c r="Y3" s="98"/>
-      <c r="Z3" s="98" t="s">
+      <c r="W3" s="100"/>
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" s="102" t="s">
+      <c r="AA3" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="98"/>
-      <c r="AC3" s="98"/>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="100"/>
-      <c r="AF3" s="98" t="s">
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="100"/>
+      <c r="AD3" s="100"/>
+      <c r="AE3" s="95"/>
+      <c r="AF3" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="98"/>
-      <c r="AH3" s="98"/>
-      <c r="AI3" s="98"/>
-      <c r="AJ3" s="110"/>
-      <c r="AK3" s="124" t="s">
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="108"/>
+      <c r="AK3" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="AL3" s="105"/>
+      <c r="AL3" s="103"/>
       <c r="AM3" s="37" t="s">
         <v>56</v>
       </c>
@@ -3882,37 +3569,37 @@
       <c r="AO3" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="AP3" s="124" t="s">
+      <c r="AP3" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="AQ3" s="105"/>
-      <c r="AR3" s="105"/>
-      <c r="AS3" s="105"/>
-      <c r="AT3" s="125" t="s">
+      <c r="AQ3" s="103"/>
+      <c r="AR3" s="103"/>
+      <c r="AS3" s="103"/>
+      <c r="AT3" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="104" t="s">
+      <c r="AU3" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="AV3" s="98"/>
-      <c r="AW3" s="98"/>
-      <c r="AX3" s="98"/>
-      <c r="AY3" s="110" t="s">
+      <c r="AV3" s="100"/>
+      <c r="AW3" s="100"/>
+      <c r="AX3" s="100"/>
+      <c r="AY3" s="108" t="s">
         <v>32</v>
       </c>
       <c r="AZ3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="BA3" s="98" t="s">
+      <c r="BA3" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="BB3" s="98" t="s">
+      <c r="BB3" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="BC3" s="98" t="s">
+      <c r="BC3" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="BD3" s="100" t="s">
+      <c r="BD3" s="95" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3930,7 +3617,7 @@
       <c r="E4" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="111"/>
+      <c r="F4" s="109"/>
       <c r="G4" s="68"/>
       <c r="H4" s="79" t="s">
         <v>96</v>
@@ -3941,7 +3628,7 @@
       <c r="J4" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="K4" s="127"/>
+      <c r="K4" s="118"/>
       <c r="L4" s="66"/>
       <c r="M4" s="70" t="s">
         <v>99</v>
@@ -3952,7 +3639,7 @@
       <c r="O4" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="P4" s="127"/>
+      <c r="P4" s="118"/>
       <c r="Q4" s="71"/>
       <c r="R4" s="70" t="s">
         <v>101</v>
@@ -3976,7 +3663,7 @@
       <c r="Y4" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="Z4" s="127"/>
+      <c r="Z4" s="118"/>
       <c r="AA4" s="82" t="s">
         <v>53</v>
       </c>
@@ -4011,7 +3698,7 @@
       <c r="AN4" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="AO4" s="190" t="s">
+      <c r="AO4" s="90" t="s">
         <v>109</v>
       </c>
       <c r="AP4" s="76" t="s">
@@ -4026,7 +3713,7 @@
       <c r="AS4" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="AT4" s="126"/>
+      <c r="AT4" s="123"/>
       <c r="AU4" s="80" t="s">
         <v>114</v>
       </c>
@@ -4039,14 +3726,14 @@
       <c r="AX4" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="AY4" s="111"/>
+      <c r="AY4" s="109"/>
       <c r="AZ4" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="101"/>
+      <c r="BA4" s="98"/>
+      <c r="BB4" s="98"/>
+      <c r="BC4" s="98"/>
+      <c r="BD4" s="96"/>
     </row>
     <row r="5" spans="1:56">
       <c r="C5" s="30"/>
@@ -4063,26 +3750,26 @@
       <c r="X5" s="45"/>
       <c r="AA5" s="30"/>
       <c r="AD5" s="30"/>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="98"/>
-      <c r="AH5" s="98"/>
-      <c r="AI5" s="98"/>
-      <c r="AJ5" s="98"/>
+      <c r="AF5" s="100"/>
+      <c r="AG5" s="100"/>
+      <c r="AH5" s="100"/>
+      <c r="AI5" s="100"/>
+      <c r="AJ5" s="100"/>
       <c r="AM5" s="45"/>
     </row>
-    <row r="6" spans="1:56" ht="15.6" customHeight="1">
+    <row r="6" spans="1:56" ht="15.5" customHeight="1">
       <c r="S6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-      <c r="X6" s="98"/>
-      <c r="Y6" s="98"/>
-      <c r="Z6" s="98"/>
-      <c r="AK6" s="98"/>
-      <c r="AL6" s="98"/>
-      <c r="AM6" s="98"/>
-      <c r="AN6" s="98"/>
+      <c r="V6" s="100"/>
+      <c r="W6" s="100"/>
+      <c r="X6" s="100"/>
+      <c r="Y6" s="100"/>
+      <c r="Z6" s="100"/>
+      <c r="AK6" s="100"/>
+      <c r="AL6" s="100"/>
+      <c r="AM6" s="100"/>
+      <c r="AN6" s="100"/>
     </row>
     <row r="7" spans="1:56">
       <c r="C7" s="31"/>
@@ -4095,14 +3782,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:56" ht="15.95" thickBot="1">
+    <row r="13" spans="1:56" ht="17" thickBot="1">
       <c r="AT13" s="77"/>
     </row>
     <row r="14" spans="1:56">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="121"/>
+      <c r="B14" s="125"/>
     </row>
     <row r="15" spans="1:56">
       <c r="A15" s="53" t="s">
@@ -4120,7 +3807,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5" thickBot="1">
+    <row r="17" spans="1:9" ht="35" thickBot="1">
       <c r="A17" s="55" t="s">
         <v>67</v>
       </c>
@@ -4129,12 +3816,12 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="120" t="s">
+      <c r="A18" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="121"/>
-    </row>
-    <row r="19" spans="1:9" ht="47.1" thickBot="1">
+      <c r="B18" s="125"/>
+    </row>
+    <row r="19" spans="1:9" ht="52" thickBot="1">
       <c r="A19" s="55" t="s">
         <v>69</v>
       </c>
@@ -4143,12 +3830,12 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="122" t="s">
+      <c r="A20" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="123"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.95" thickBot="1">
+      <c r="B20" s="127"/>
+    </row>
+    <row r="21" spans="1:9" ht="17" thickBot="1">
       <c r="A21" s="42" t="s">
         <v>71</v>
       </c>
@@ -4157,12 +3844,12 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="121"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.95" thickBot="1">
+      <c r="B22" s="125"/>
+    </row>
+    <row r="23" spans="1:9" ht="17" thickBot="1">
       <c r="A23" s="42" t="s">
         <v>74</v>
       </c>
@@ -4171,12 +3858,12 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="120" t="s">
+      <c r="A24" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="121"/>
-    </row>
-    <row r="25" spans="1:9" ht="93.6" thickBot="1">
+      <c r="B24" s="125"/>
+    </row>
+    <row r="25" spans="1:9" ht="103" thickBot="1">
       <c r="A25" s="42" t="s">
         <v>42</v>
       </c>
@@ -4185,12 +3872,12 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="121"/>
-    </row>
-    <row r="27" spans="1:9" ht="30.95">
+      <c r="B26" s="125"/>
+    </row>
+    <row r="27" spans="1:9" ht="34">
       <c r="A27" s="44" t="s">
         <v>81</v>
       </c>
@@ -4198,7 +3885,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.95" thickBot="1">
+    <row r="28" spans="1:9" ht="17" thickBot="1">
       <c r="A28" s="57" t="s">
         <v>82</v>
       </c>
@@ -4210,12 +3897,12 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="120" t="s">
+      <c r="A29" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="121"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.95" thickBot="1">
+      <c r="B29" s="125"/>
+    </row>
+    <row r="30" spans="1:9" ht="17" thickBot="1">
       <c r="A30" s="42" t="s">
         <v>85</v>
       </c>
@@ -4224,12 +3911,12 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="120" t="s">
+      <c r="A31" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="121"/>
-    </row>
-    <row r="32" spans="1:9" ht="93.6" thickBot="1">
+      <c r="B31" s="125"/>
+    </row>
+    <row r="32" spans="1:9" ht="103" thickBot="1">
       <c r="A32" s="42" t="s">
         <v>40</v>
       </c>
@@ -4239,6 +3926,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AK6:AN6"/>
+    <mergeCell ref="V6:Z6"/>
+    <mergeCell ref="AF5:AJ5"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AT3:AT4"/>
+    <mergeCell ref="AP3:AS3"/>
     <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:K1"/>
@@ -4255,32 +3968,6 @@
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="V3:Y3"/>
     <mergeCell ref="AF3:AJ3"/>
-    <mergeCell ref="AK1:AO1"/>
-    <mergeCell ref="AP1:AT1"/>
-    <mergeCell ref="AU1:AY1"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AP3:AS3"/>
-    <mergeCell ref="AZ1:BD1"/>
-    <mergeCell ref="AU3:AX3"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="BD3:BD4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AK6:AN6"/>
-    <mergeCell ref="V6:Z6"/>
-    <mergeCell ref="AF5:AJ5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC4" r:id="rId1" display="https://performancemanager8.successfactors.com/sf/learning?destUrl=https%3a%2f%2fprogressive.plateau.com%2flearning%2fuser%2fdeeplink_redirect.jsp%3flinkId%3dITEM_DETAILS%26componentID%3dMUOP00197%26componentTypeID%3dWBT%26revisionDate%3d1627064100000%26fromSF%3dY&amp;company=ProgressivePR" xr:uid="{0FE62631-88E1-4717-A39C-71F2F5C5BC4E}"/>
@@ -4300,32 +3987,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6857A0-070F-4018-81CA-EECF075A8DD7}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF7B6DB-8578-D54E-BB8C-6EBE359CADC5}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="53.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42.625" customWidth="1"/>
-    <col min="4" max="4" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.625" customWidth="1"/>
+    <col min="1" max="1" width="53.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="63" customHeight="1">
@@ -4428,7 +4103,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30.95">
+    <row r="12" spans="1:5" ht="34">
       <c r="A12" s="32" t="s">
         <v>142</v>
       </c>
@@ -4467,7 +4142,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="62.1">
+    <row r="15" spans="1:5" ht="68">
       <c r="A15" s="32" t="s">
         <v>151</v>
       </c>
@@ -4484,7 +4159,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30.95">
+    <row r="16" spans="1:5" ht="34">
       <c r="A16" s="32" t="s">
         <v>82</v>
       </c>
@@ -4557,7 +4232,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="62.1">
+    <row r="24" spans="1:5" ht="68">
       <c r="A24" s="17" t="s">
         <v>165</v>
       </c>
@@ -4636,7 +4311,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.95" thickBot="1">
+    <row r="32" spans="1:5" ht="17" thickBot="1">
       <c r="A32" s="23" t="s">
         <v>179</v>
       </c>
@@ -4690,7 +4365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E03BDC-8FA9-4377-9A09-7029B549FBA6}">
   <dimension ref="A2:G28"/>
   <sheetViews>
@@ -4698,14 +4373,14 @@
       <selection activeCell="F8" sqref="F8:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="27" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="4" max="4" width="33.25" customWidth="1"/>
-    <col min="5" max="5" width="33.75" customWidth="1"/>
-    <col min="6" max="6" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -4713,71 +4388,71 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" customHeight="1">
-      <c r="B3" s="143">
+    <row r="3" spans="1:7" ht="15.5" customHeight="1">
+      <c r="B3" s="131">
         <v>45348</v>
       </c>
-      <c r="C3" s="143">
+      <c r="C3" s="131">
         <v>45349</v>
       </c>
-      <c r="D3" s="143">
+      <c r="D3" s="131">
         <v>45350</v>
       </c>
-      <c r="E3" s="143">
+      <c r="E3" s="131">
         <v>45351</v>
       </c>
-      <c r="F3" s="143">
+      <c r="F3" s="131">
         <v>45352</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1">
+    <row r="4" spans="1:7" ht="15.5" customHeight="1">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.5" customHeight="1">
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="130" t="s">
+      <c r="E5" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="132" t="s">
         <v>190</v>
       </c>
       <c r="G5">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.6" customHeight="1">
+    <row r="6" spans="1:7" ht="15.5" customHeight="1">
       <c r="A6" s="34">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
       <c r="G6" s="34">
         <v>0.39583333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1">
+    <row r="7" spans="1:7" ht="15.5" customHeight="1">
       <c r="A7">
         <v>10</v>
       </c>
-      <c r="B7" s="142"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="28" t="s">
         <v>192</v>
       </c>
@@ -4798,45 +4473,45 @@
       <c r="A8" s="34">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="133" t="s">
+      <c r="B8" s="143"/>
+      <c r="C8" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="134" t="s">
+      <c r="D8" s="144" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="133" t="s">
+      <c r="E8" s="135" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="144" t="s">
         <v>196</v>
       </c>
       <c r="G8" s="34">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" customHeight="1">
+    <row r="9" spans="1:7" ht="15.5" customHeight="1">
       <c r="A9">
         <v>11</v>
       </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="134"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="144"/>
       <c r="G9">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1">
+    <row r="10" spans="1:7" ht="15.5" customHeight="1">
       <c r="A10" s="34">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="134"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="144"/>
       <c r="G10" s="34">
         <v>0.47916666666666669</v>
       </c>
@@ -4845,13 +4520,13 @@
       <c r="A11">
         <v>12</v>
       </c>
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="141" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="144"/>
       <c r="G11">
         <v>12</v>
       </c>
@@ -4860,43 +4535,43 @@
       <c r="A12" s="34">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="130" t="s">
+      <c r="B12" s="142"/>
+      <c r="C12" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="130" t="s">
+      <c r="E12" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="130" t="s">
+      <c r="F12" s="132" t="s">
         <v>197</v>
       </c>
       <c r="G12" s="34">
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1">
+    <row r="13" spans="1:7" ht="15.5" customHeight="1">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
       <c r="G13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="34">
         <v>6.25E-2</v>
       </c>
-      <c r="B14" s="136"/>
+      <c r="B14" s="137"/>
       <c r="C14" s="28" t="s">
         <v>199</v>
       </c>
@@ -4920,16 +4595,16 @@
       <c r="B15" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="133" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="131" t="s">
+      <c r="D15" s="133" t="s">
         <v>202</v>
       </c>
-      <c r="E15" s="131" t="s">
+      <c r="E15" s="133" t="s">
         <v>203</v>
       </c>
-      <c r="F15" s="130" t="s">
+      <c r="F15" s="132" t="s">
         <v>21</v>
       </c>
       <c r="G15">
@@ -4940,13 +4615,13 @@
       <c r="A16" s="34">
         <v>0.10416666666666667</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="130"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="132"/>
       <c r="G16" s="34">
         <v>0.10416666666666667</v>
       </c>
@@ -4955,11 +4630,11 @@
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="130"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="132"/>
       <c r="G17">
         <v>3</v>
       </c>
@@ -4968,11 +4643,11 @@
       <c r="A18" s="34">
         <v>0.14583333333333334</v>
       </c>
-      <c r="B18" s="138"/>
-      <c r="C18" s="131"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="130"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="132"/>
       <c r="G18" s="34">
         <v>0.14583333333333334</v>
       </c>
@@ -4981,32 +4656,32 @@
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="132" t="s">
+      <c r="B19" s="140"/>
+      <c r="C19" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="132" t="s">
+      <c r="D19" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="E19" s="132" t="s">
+      <c r="E19" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="F19" s="130"/>
+      <c r="F19" s="132"/>
       <c r="G19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.6" customHeight="1">
+    <row r="20" spans="1:7" ht="15.5" customHeight="1">
       <c r="A20" s="34">
         <v>0.1875</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="130"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="132"/>
       <c r="G20" s="34">
         <v>0.1875</v>
       </c>
@@ -5015,32 +4690,32 @@
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="130" t="s">
+      <c r="D21" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="E21" s="130" t="s">
+      <c r="E21" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="F21" s="130"/>
+      <c r="F21" s="132"/>
       <c r="G21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.6" customHeight="1">
+    <row r="22" spans="1:7" ht="15.5" customHeight="1">
       <c r="A22" s="34">
         <v>0.22916666666666666</v>
       </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
       <c r="G22" s="34">
         <v>0.22916666666666666</v>
       </c>
@@ -5063,11 +4738,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D8:D11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C5:C6"/>
@@ -5079,22 +4765,11 @@
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B5:B10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B27" r:id="rId1" xr:uid="{07F1FB62-52FF-407C-8936-B8812171254E}"/>
@@ -5108,7 +4783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EE204A-CFF3-4BC4-AEDD-8596D2FC23AE}">
   <dimension ref="A2:F28"/>
   <sheetViews>
@@ -5116,14 +4791,14 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" customWidth="1"/>
     <col min="5" max="5" width="33.5" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -5131,62 +4806,62 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.95" customHeight="1">
+    <row r="3" spans="1:6" ht="16" customHeight="1">
       <c r="A3" s="81"/>
-      <c r="B3" s="143">
+      <c r="B3" s="131">
         <v>45355</v>
       </c>
-      <c r="C3" s="143">
+      <c r="C3" s="131">
         <v>45356</v>
       </c>
-      <c r="D3" s="143">
+      <c r="D3" s="131">
         <v>45357</v>
       </c>
-      <c r="E3" s="143">
+      <c r="E3" s="131">
         <v>45358</v>
       </c>
-      <c r="F3" s="143">
+      <c r="F3" s="131">
         <v>45359</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" customHeight="1">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" customHeight="1">
       <c r="A5">
         <v>9</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="130" t="s">
+      <c r="E5" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="F5" s="130" t="s">
+      <c r="F5" s="132" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" customHeight="1">
+    <row r="6" spans="1:6" ht="15.5" customHeight="1">
       <c r="A6" s="34">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B6" s="130"/>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" customHeight="1">
+      <c r="B6" s="132"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" customHeight="1">
       <c r="A7">
         <v>10</v>
       </c>
@@ -5206,11 +4881,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" customHeight="1">
+    <row r="8" spans="1:6" ht="15.5" customHeight="1">
       <c r="A8" s="34">
         <v>0.4375</v>
       </c>
-      <c r="B8" s="133" t="s">
+      <c r="B8" s="135" t="s">
         <v>210</v>
       </c>
       <c r="C8" s="148" t="s">
@@ -5219,72 +4894,72 @@
       <c r="D8" s="147" t="s">
         <v>212</v>
       </c>
-      <c r="E8" s="133" t="s">
+      <c r="E8" s="135" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="134" t="s">
+      <c r="F8" s="144" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" customHeight="1">
+    <row r="9" spans="1:6" ht="15.5" customHeight="1">
       <c r="A9">
         <v>11</v>
       </c>
-      <c r="B9" s="133"/>
+      <c r="B9" s="135"/>
       <c r="C9" s="148"/>
       <c r="D9" s="147"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="134"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" customHeight="1">
+      <c r="E9" s="135"/>
+      <c r="F9" s="144"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.5" customHeight="1">
       <c r="A10" s="34">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B10" s="133"/>
+      <c r="B10" s="135"/>
       <c r="C10" s="148"/>
       <c r="D10" s="147"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="134"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" customHeight="1">
+      <c r="E10" s="135"/>
+      <c r="F10" s="144"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" customHeight="1">
       <c r="A11">
         <v>12</v>
       </c>
-      <c r="B11" s="133"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="148"/>
       <c r="D11" s="147"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="134"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" customHeight="1">
+      <c r="E11" s="135"/>
+      <c r="F11" s="144"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" customHeight="1">
       <c r="A12" s="34">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="C12" s="130" t="s">
+      <c r="C12" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="130" t="s">
+      <c r="D12" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="130" t="s">
+      <c r="E12" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="130" t="s">
+      <c r="F12" s="132" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" customHeight="1">
+    <row r="13" spans="1:6" ht="15.5" customHeight="1">
       <c r="A13">
         <v>1</v>
       </c>
-      <c r="B13" s="130"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1">
       <c r="A14" s="34">
@@ -5293,118 +4968,118 @@
       <c r="B14" s="145" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="144" t="s">
+      <c r="C14" s="149" t="s">
         <v>216</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="E14" s="144" t="s">
+      <c r="E14" s="149" t="s">
         <v>217</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" customHeight="1">
+    <row r="15" spans="1:6" ht="15.5" customHeight="1">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" s="146"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="131" t="s">
+      <c r="C15" s="149"/>
+      <c r="D15" s="133" t="s">
         <v>218</v>
       </c>
-      <c r="E15" s="144"/>
-      <c r="F15" s="130" t="s">
+      <c r="E15" s="149"/>
+      <c r="F15" s="132" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" customHeight="1">
+    <row r="16" spans="1:6" ht="15.5" customHeight="1">
       <c r="A16" s="34">
         <v>0.10416666666666667</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="138" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="144"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="130"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" customHeight="1">
+      <c r="C16" s="149"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="132"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" customHeight="1">
       <c r="A17">
         <v>3</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="130"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" customHeight="1">
+      <c r="B17" s="139"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="132"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" customHeight="1">
       <c r="A18" s="34">
         <v>0.14583333333333334</v>
       </c>
-      <c r="B18" s="139"/>
-      <c r="C18" s="132" t="s">
+      <c r="B18" s="140"/>
+      <c r="C18" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132" t="s">
+      <c r="D18" s="133"/>
+      <c r="E18" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="130"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" customHeight="1">
+      <c r="F18" s="132"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.5" customHeight="1">
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="130"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" customHeight="1">
+      <c r="C19" s="134"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="132"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.5" customHeight="1">
       <c r="A20" s="34">
         <v>0.1875</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="130"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="132"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="B21" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="C21" s="130" t="s">
+      <c r="C21" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="D21" s="130" t="s">
+      <c r="D21" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="E21" s="130" t="s">
+      <c r="E21" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="F21" s="130"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" customHeight="1">
+      <c r="F21" s="132"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.5" customHeight="1">
       <c r="A22" s="34">
         <v>0.22916666666666666</v>
       </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="34"/>
@@ -5440,6 +5115,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B14:B15"/>
@@ -5456,23 +5148,6 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F15:F22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B28" r:id="rId1" xr:uid="{51DA2B55-87CB-4436-A4B9-6195180ECBD0}"/>
@@ -5486,7 +5161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703F0737-F1CA-4D69-9830-889DA78F60AD}">
   <dimension ref="A3:G30"/>
   <sheetViews>
@@ -5494,13 +5169,13 @@
       <selection activeCell="C9" sqref="C9:C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
     <col min="3" max="3" width="29.5" customWidth="1"/>
-    <col min="4" max="4" width="28.625" customWidth="1"/>
-    <col min="5" max="5" width="28.375" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5509,47 +5184,47 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.95" customHeight="1">
-      <c r="B4" s="143">
+    <row r="4" spans="1:7" ht="16" customHeight="1">
+      <c r="B4" s="131">
         <v>45362</v>
       </c>
-      <c r="C4" s="143">
+      <c r="C4" s="131">
         <v>45363</v>
       </c>
-      <c r="D4" s="143">
+      <c r="D4" s="131">
         <v>45364</v>
       </c>
-      <c r="E4" s="143">
+      <c r="E4" s="131">
         <v>45365</v>
       </c>
-      <c r="F4" s="143">
+      <c r="F4" s="131">
         <v>45366</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
         <v>9</v>
       </c>
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="130" t="s">
+      <c r="D6" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="F6" s="130" t="s">
+      <c r="F6" s="132" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5557,11 +5232,11 @@
       <c r="A7" s="34">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
       <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
@@ -5584,11 +5259,11 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" customHeight="1">
+    <row r="9" spans="1:7" ht="15.5" customHeight="1">
       <c r="A9" s="34">
         <v>0.4375</v>
       </c>
-      <c r="B9" s="137" t="s">
+      <c r="B9" s="138" t="s">
         <v>226</v>
       </c>
       <c r="C9" s="148" t="s">
@@ -5597,62 +5272,62 @@
       <c r="D9" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="E9" s="150" t="s">
+      <c r="E9" s="157" t="s">
         <v>229</v>
       </c>
-      <c r="F9" s="149" t="s">
+      <c r="F9" s="156" t="s">
         <v>21</v>
       </c>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1">
+    <row r="10" spans="1:7" ht="15.5" customHeight="1">
       <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10" s="138"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="148"/>
       <c r="D10" s="148"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="149"/>
-    </row>
-    <row r="11" spans="1:7" ht="30.95" customHeight="1">
+      <c r="E10" s="157"/>
+      <c r="F10" s="156"/>
+    </row>
+    <row r="11" spans="1:7" ht="31" customHeight="1">
       <c r="A11" s="34">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B11" s="138"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="148"/>
       <c r="D11" s="148"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="149"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="156"/>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" spans="1:7" ht="15.6" customHeight="1">
+    <row r="12" spans="1:7" ht="15.5" customHeight="1">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="148"/>
       <c r="D12" s="148"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="149"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1">
+      <c r="E12" s="157"/>
+      <c r="F12" s="156"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.5" customHeight="1">
       <c r="A13" s="34">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="C13" s="130" t="s">
+      <c r="C13" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="130" t="s">
+      <c r="D13" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="E13" s="130" t="s">
+      <c r="E13" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="141" t="s">
+      <c r="F13" s="142" t="s">
         <v>197</v>
       </c>
       <c r="G13" s="34"/>
@@ -5661,17 +5336,17 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.6" customHeight="1">
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.5" customHeight="1">
       <c r="A15" s="34">
         <v>6.25E-2</v>
       </c>
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="154" t="s">
         <v>215</v>
       </c>
       <c r="C15" s="28" t="s">
@@ -5692,17 +5367,17 @@
       <c r="A16">
         <v>2</v>
       </c>
-      <c r="B16" s="157"/>
-      <c r="C16" s="155" t="s">
+      <c r="B16" s="155"/>
+      <c r="C16" s="150" t="s">
         <v>230</v>
       </c>
-      <c r="D16" s="154" t="s">
+      <c r="D16" s="158" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="155" t="s">
+      <c r="E16" s="150" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="130" t="s">
+      <c r="F16" s="132" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5713,13 +5388,13 @@
       <c r="B17" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="155"/>
-      <c r="F17" s="130"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="158"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="132"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1">
+    <row r="18" spans="1:7" ht="15.5" customHeight="1">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5727,71 +5402,71 @@
       <c r="C18" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="154"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="151" t="s">
         <v>205</v>
       </c>
-      <c r="F18" s="130"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1">
+      <c r="F18" s="132"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" customHeight="1">
       <c r="A19" s="34">
         <v>0.14583333333333334</v>
       </c>
       <c r="B19" s="152"/>
       <c r="C19" s="152"/>
-      <c r="D19" s="154"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="152"/>
-      <c r="F19" s="130"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" customHeight="1">
+    <row r="20" spans="1:7" ht="15.5" customHeight="1">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" s="152"/>
       <c r="C20" s="152"/>
-      <c r="D20" s="154"/>
+      <c r="D20" s="158"/>
       <c r="E20" s="152"/>
-      <c r="F20" s="130"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1">
+      <c r="F20" s="132"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.5" customHeight="1">
       <c r="A21" s="34">
         <v>0.1875</v>
       </c>
       <c r="B21" s="153"/>
       <c r="C21" s="153"/>
-      <c r="D21" s="154"/>
+      <c r="D21" s="158"/>
       <c r="E21" s="153"/>
-      <c r="F21" s="130"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="34"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
         <v>5</v>
       </c>
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="C22" s="130" t="s">
+      <c r="C22" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="E22" s="130" t="s">
+      <c r="E22" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="F22" s="130"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.6" customHeight="1">
+      <c r="F22" s="132"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.5" customHeight="1">
       <c r="A23" s="34">
         <v>0.22916666666666666</v>
       </c>
-      <c r="B23" s="141"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="132"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
       <c r="G23" s="34"/>
     </row>
     <row r="28" spans="1:7">
@@ -5820,22 +5495,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="F9:F12"/>
     <mergeCell ref="F16:F23"/>
     <mergeCell ref="F13:F14"/>
@@ -5852,6 +5511,22 @@
     <mergeCell ref="E22:E23"/>
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="D16:D21"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B28" r:id="rId1" xr:uid="{1728618D-6247-483D-8BEE-00CE6282A206}"/>
@@ -5865,7 +5540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4534A31-4B6E-4E7A-9A76-D944605DF855}">
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -5873,13 +5548,13 @@
       <selection activeCell="F7" sqref="F7:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
-    <col min="3" max="3" width="31.375" customWidth="1"/>
-    <col min="4" max="4" width="28.625" customWidth="1"/>
-    <col min="5" max="5" width="28.375" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5888,24 +5563,24 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.95" customHeight="1"/>
+    <row r="2" spans="1:7" ht="16" customHeight="1"/>
     <row r="4" spans="1:7">
       <c r="A4">
         <v>9</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="132" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5913,11 +5588,11 @@
       <c r="A5" s="34">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
       <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -5940,75 +5615,75 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1">
+    <row r="7" spans="1:7" ht="15.5" customHeight="1">
       <c r="A7" s="34">
         <v>0.4375</v>
       </c>
-      <c r="B7" s="160" t="s">
+      <c r="B7" s="159" t="s">
         <v>238</v>
       </c>
-      <c r="C7" s="160" t="s">
+      <c r="C7" s="159" t="s">
         <v>238</v>
       </c>
-      <c r="D7" s="160" t="s">
+      <c r="D7" s="159" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="160" t="s">
+      <c r="E7" s="159" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="160" t="s">
+      <c r="F7" s="159" t="s">
         <v>238</v>
       </c>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1">
+    <row r="8" spans="1:7" ht="15.5" customHeight="1">
       <c r="A8">
         <v>11</v>
       </c>
-      <c r="B8" s="160"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" customHeight="1">
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.5" customHeight="1">
       <c r="A9" s="34">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B9" s="160"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1">
+    <row r="10" spans="1:7" ht="15.5" customHeight="1">
       <c r="A10">
         <v>12</v>
       </c>
-      <c r="B10" s="160"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1">
+      <c r="B10" s="159"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="159"/>
+      <c r="F10" s="159"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.5" customHeight="1">
       <c r="A11" s="34">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="130" t="s">
+      <c r="D11" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="130" t="s">
+      <c r="F11" s="132" t="s">
         <v>197</v>
       </c>
       <c r="G11" s="34"/>
@@ -6017,13 +5692,13 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1">
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.5" customHeight="1">
       <c r="A13" s="34">
         <v>6.25E-2</v>
       </c>
@@ -6048,19 +5723,19 @@
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="144" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="144" t="s">
         <v>240</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="155" t="s">
+      <c r="E14" s="150" t="s">
         <v>241</v>
       </c>
-      <c r="F14" s="130" t="s">
+      <c r="F14" s="132" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6068,86 +5743,86 @@
       <c r="A15" s="34">
         <v>0.10416666666666667</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="155"/>
-      <c r="F15" s="130"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="161"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1">
+    <row r="16" spans="1:7" ht="15.5" customHeight="1">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="149" t="s">
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="156" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="132" t="s">
+      <c r="E16" s="134" t="s">
         <v>243</v>
       </c>
-      <c r="F16" s="130"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1">
+      <c r="F16" s="132"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" customHeight="1">
       <c r="A17" s="34">
         <v>0.14583333333333334</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="149"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="130"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="132"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1">
+    <row r="18" spans="1:7" ht="15.5" customHeight="1">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="130"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1">
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="132"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" customHeight="1">
       <c r="A19" s="34">
         <v>0.1875</v>
       </c>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="130"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" customHeight="1">
+    <row r="20" spans="1:7" ht="15.5" customHeight="1">
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="130" t="s">
+      <c r="E20" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="F20" s="130"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1">
+      <c r="F20" s="132"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.5" customHeight="1">
       <c r="A21" s="34">
         <v>0.22916666666666666</v>
       </c>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="34"/>
     </row>
     <row r="26" spans="1:7">
@@ -6160,6 +5835,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="B14:B19"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F7:F10"/>
@@ -6176,16 +5861,6 @@
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C14:C19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1" xr:uid="{4DB83881-4C31-4E12-AE4B-D72F0C731B41}"/>
@@ -6199,7 +5874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8B9EFED-9D19-47E1-A20A-2ACEC6409A30}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -6207,14 +5882,14 @@
       <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="33" customWidth="1"/>
     <col min="3" max="3" width="26.5" customWidth="1"/>
-    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
     <col min="5" max="5" width="26.5" customWidth="1"/>
-    <col min="6" max="6" width="27.75" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -6222,35 +5897,35 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.6" customHeight="1">
+    <row r="4" spans="1:7" ht="15.5" customHeight="1">
       <c r="A4">
         <v>9</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="132" t="s">
         <v>190</v>
       </c>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="132" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.6" customHeight="1">
+    <row r="5" spans="1:7" ht="15.5" customHeight="1">
       <c r="A5" s="34">
         <v>0.39583333333333331</v>
       </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
       <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7">
@@ -6273,75 +5948,75 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" customHeight="1">
+    <row r="7" spans="1:7" ht="15.5" customHeight="1">
       <c r="A7" s="34">
         <v>0.4375</v>
       </c>
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="162" t="s">
         <v>245</v>
       </c>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="135" t="s">
         <v>246</v>
       </c>
       <c r="D7" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="163" t="s">
         <v>248</v>
       </c>
-      <c r="F7" s="165" t="s">
+      <c r="F7" s="166" t="s">
         <v>249</v>
       </c>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7" ht="15.6" customHeight="1">
+    <row r="8" spans="1:7" ht="15.5" customHeight="1">
       <c r="A8">
         <v>11</v>
       </c>
-      <c r="B8" s="161"/>
-      <c r="C8" s="133"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="135"/>
       <c r="D8" s="148"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="166"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.6" customHeight="1">
+      <c r="E8" s="164"/>
+      <c r="F8" s="167"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.5" customHeight="1">
       <c r="A9" s="34">
         <v>0.47916666666666669</v>
       </c>
-      <c r="B9" s="161"/>
-      <c r="C9" s="133"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="135"/>
       <c r="D9" s="148"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="166"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="167"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="15.6" customHeight="1">
+    <row r="10" spans="1:7" ht="15.5" customHeight="1">
       <c r="A10">
         <v>12</v>
       </c>
-      <c r="B10" s="161"/>
-      <c r="C10" s="133"/>
+      <c r="B10" s="162"/>
+      <c r="C10" s="135"/>
       <c r="D10" s="148"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="167"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" customHeight="1">
+      <c r="E10" s="165"/>
+      <c r="F10" s="168"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.5" customHeight="1">
       <c r="A11" s="34">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="130" t="s">
+      <c r="D11" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="130" t="s">
+      <c r="F11" s="132" t="s">
         <v>197</v>
       </c>
       <c r="G11" s="34"/>
@@ -6350,13 +6025,13 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="130"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-    </row>
-    <row r="13" spans="1:7" ht="15.6" customHeight="1">
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.5" customHeight="1">
       <c r="A13" s="34">
         <v>6.25E-2</v>
       </c>
@@ -6377,23 +6052,23 @@
       </c>
       <c r="G13" s="34"/>
     </row>
-    <row r="14" spans="1:7" ht="15.6" customHeight="1">
+    <row r="14" spans="1:7" ht="15.5" customHeight="1">
       <c r="A14">
         <v>2</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="C14" s="134" t="s">
+      <c r="C14" s="144" t="s">
         <v>251</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="132" t="s">
+      <c r="E14" s="134" t="s">
         <v>205</v>
       </c>
-      <c r="F14" s="130" t="s">
+      <c r="F14" s="132" t="s">
         <v>21</v>
       </c>
     </row>
@@ -6401,90 +6076,90 @@
       <c r="A15" s="34">
         <v>0.10416666666666667</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="130"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="132"/>
       <c r="G15" s="34"/>
     </row>
-    <row r="16" spans="1:7" ht="15.6" customHeight="1">
+    <row r="16" spans="1:7" ht="15.5" customHeight="1">
       <c r="A16">
         <v>3</v>
       </c>
-      <c r="B16" s="155" t="s">
+      <c r="B16" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="134"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="130"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1">
+      <c r="C16" s="144"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="132"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" customHeight="1">
       <c r="A17" s="34">
         <v>0.14583333333333334</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="155" t="s">
+      <c r="B17" s="150"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="150" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="149" t="s">
+      <c r="E17" s="156" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="130"/>
+      <c r="F17" s="132"/>
       <c r="G17" s="34"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" customHeight="1">
+    <row r="18" spans="1:7" ht="15.5" customHeight="1">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="155" t="s">
+      <c r="B18" s="150"/>
+      <c r="C18" s="150" t="s">
         <v>255</v>
       </c>
-      <c r="D18" s="155"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="130"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" customHeight="1">
+      <c r="D18" s="150"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="132"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.5" customHeight="1">
       <c r="A19" s="34">
         <v>0.1875</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="130"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="150"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="132"/>
       <c r="G19" s="34"/>
     </row>
-    <row r="20" spans="1:7" ht="15.6" customHeight="1">
+    <row r="20" spans="1:7" ht="15.5" customHeight="1">
       <c r="A20">
         <v>5</v>
       </c>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="130" t="s">
+      <c r="C20" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="130" t="s">
+      <c r="E20" s="132" t="s">
         <v>206</v>
       </c>
-      <c r="F20" s="130"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" customHeight="1">
+      <c r="F20" s="132"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.5" customHeight="1">
       <c r="A21" s="34">
         <v>0.22916666666666666</v>
       </c>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
       <c r="G21" s="34"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
@@ -6521,18 +6196,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="E7:E10"/>
@@ -6549,6 +6212,18 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="C14:C17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B25" r:id="rId1" xr:uid="{A165D4B3-97C8-49C2-A45E-FCCAAF3C330A}"/>
@@ -6567,35 +6242,319 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA36C93-8417-4300-B37D-618FD9E7F1BB}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" s="132" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="132" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="132" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="132" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="34">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="34">
+        <v>0.4375</v>
+      </c>
+      <c r="B7" s="185" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="185" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="188" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="188" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="188" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
+      <c r="D8" s="189"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="189"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="34">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" s="187"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="190"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="34">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B11" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="141" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="143"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="34">
+        <v>6.25E-2</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="172" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="179" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="175" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="132" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" customHeight="1">
+      <c r="A15" s="34">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="B15" s="173"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="180"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="132"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" customHeight="1">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="173"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="132"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" customHeight="1">
+      <c r="A17" s="34">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="B17" s="173"/>
+      <c r="C17" s="182" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="138" t="s">
+        <v>261</v>
+      </c>
+      <c r="E17" s="169" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="132"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" customHeight="1">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" s="173"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="132"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="34">
+        <v>0.1875</v>
+      </c>
+      <c r="B19" s="174"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="132"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20" s="132" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="132" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="132" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="132" t="s">
+        <v>206</v>
+      </c>
+      <c r="F20" s="132"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="34">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="B21" s="132"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="F14:F21"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1" display="https://performancemanager8.successfactors.com/sf/learning?destUrl=https://progressive.plateau.com/learning/user/deeplink_redirect.jsp?linkId%3dITEM_DETAILS%26componentID%3dMUOP00001%26componentTypeID%3dWBT%26revisionDate%3d1509508800000%26fromSF%3dY&amp;company=ProgressivePR" xr:uid="{17299FA9-D109-437C-85FD-22B1B31E1C9D}"/>
+    <hyperlink ref="D14" r:id="rId2" display="https://performancemanager8.successfactors.com/sf/learning?destUrl=https%3a%2f%2fprogressive.plateau.com%2flearning%2fuser%2fdeeplink_redirect.jsp%3flinkId%3dITEM_DETAILS%26componentID%3dMUOP00197%26componentTypeID%3dWBT%26revisionDate%3d1627064100000%26fromSF%3dY&amp;company=ProgressivePR" xr:uid="{D1C93510-7D97-4907-A651-A9956D028D6F}"/>
+    <hyperlink ref="D17:D19" r:id="rId3" display="Udemy: Tableau" xr:uid="{1DFEE524-6FCD-44B2-84C3-029B8675CDDB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="959d53c8-292b-4aa8-bb70-f9900682e6de" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ec6e143-408a-4839-9bcf-61adb1c13e3f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Notes xmlns="5ec6e143-408a-4839-9bcf-61adb1c13e3f" xsi:nil="true"/>
-    <SharedWithUsers xmlns="959d53c8-292b-4aa8-bb70-f9900682e6de">
-      <UserInfo>
-        <DisplayName>Xavier A Zup</DisplayName>
-        <AccountId>1131</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010078FC82D30FF8D84CBEB82DCBA9A15C0A" ma:contentTypeVersion="22" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3013f6de0dd108bbc8dc41a030196cd3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5ec6e143-408a-4839-9bcf-61adb1c13e3f" xmlns:ns3="959d53c8-292b-4aa8-bb70-f9900682e6de" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ca06851f1f55f2987bbbb0f6d6a32f46" ns2:_="" ns3:_="">
     <xsd:import namespace="5ec6e143-408a-4839-9bcf-61adb1c13e3f"/>
@@ -6852,14 +6811,68 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="959d53c8-292b-4aa8-bb70-f9900682e6de" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5ec6e143-408a-4839-9bcf-61adb1c13e3f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Notes xmlns="5ec6e143-408a-4839-9bcf-61adb1c13e3f" xsi:nil="true"/>
+    <SharedWithUsers xmlns="959d53c8-292b-4aa8-bb70-f9900682e6de">
+      <UserInfo>
+        <DisplayName>Xavier A Zup</DisplayName>
+        <AccountId>1131</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{481DE648-C2B6-400C-AE6C-1F9E2FACA222}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179275B6-955C-4FCC-B33C-8C2C015750ED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5ec6e143-408a-4839-9bcf-61adb1c13e3f"/>
+    <ds:schemaRef ds:uri="959d53c8-292b-4aa8-bb70-f9900682e6de"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05B763D-3F77-47C8-9E8C-C641EA597FA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F05B763D-3F77-47C8-9E8C-C641EA597FA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="959d53c8-292b-4aa8-bb70-f9900682e6de"/>
+    <ds:schemaRef ds:uri="5ec6e143-408a-4839-9bcf-61adb1c13e3f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{179275B6-955C-4FCC-B33C-8C2C015750ED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{481DE648-C2B6-400C-AE6C-1F9E2FACA222}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>